--- a/data/Excel/Api_Case_V3.xlsx
+++ b/data/Excel/Api_Case_V3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12020"/>
+    <workbookView windowWidth="29400" windowHeight="12260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1491,10 +1491,10 @@
   <sheetPr/>
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="5"/>
